--- a/data/GHS_video_list.xlsx
+++ b/data/GHS_video_list.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biib-my.sharepoint.com/personal/sounak_kundu_biogen_com/Documents/Documents/Personal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Golpo holeo sotyi\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3864C90-25B2-4E4E-9CD5-47DE871BBF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07352AF-D0EC-46CA-8930-613D56A38C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{52E83CFC-74AE-4618-91D2-ECED407968E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{52E83CFC-74AE-4618-91D2-ECED407968E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Title</t>
   </si>
@@ -53,43 +50,121 @@
     <t>Link</t>
   </si>
   <si>
-    <t>ব্রিটিশ আমলের কলকাতা</t>
-  </si>
-  <si>
-    <t>Colonial History</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dQw4w9WgXcQ</t>
-  </si>
-  <si>
-    <t>হারিয়ে যাওয়া ইতিহাস</t>
-  </si>
-  <si>
-    <t>Lost History</t>
-  </si>
-  <si>
-    <t>জব চার্নকের রহস্য</t>
-  </si>
-  <si>
-    <t>Colonial Figures</t>
-  </si>
-  <si>
-    <t>https://youtu.be/dQw4w9WgXcQ</t>
-  </si>
-  <si>
     <t>Video</t>
   </si>
   <si>
+    <t>Panioty Fountain</t>
+  </si>
+  <si>
+    <t>Hobson Jobson</t>
+  </si>
+  <si>
+    <t>Duel at Alipore</t>
+  </si>
+  <si>
+    <t>Calcutta</t>
+  </si>
+  <si>
+    <t>Tales from the past</t>
+  </si>
+  <si>
+    <t>22.5659° N, 88.3486° E</t>
+  </si>
+  <si>
+    <t>22.5465° N, 88.3435° E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XPY6n4xFfXg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rtJZXEZoP7E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LJavzLA38_w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7ZhFqKuCyzU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=90IQQ4rj-_Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4uFrn3GOJAw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9DA_bgZWbR8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GbIBBwDREKc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2DpvS4qYv98</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p0sQAUnMzOg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2Cj1RVRgsKI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8NNMVkeVLmQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7Fah4lYZxAA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ighz5CqWWPE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eoiG1jcHNks</t>
+  </si>
+  <si>
+    <t>First Bengali to learn English</t>
+  </si>
+  <si>
     <t>Reel</t>
   </si>
   <si>
-    <t>22.5448081,88.3376922</t>
-  </si>
-  <si>
-    <t>22.5481573,88.3467098</t>
-  </si>
-  <si>
-    <t>22.5738408,88.3439152</t>
+    <t>Balloon Duel</t>
+  </si>
+  <si>
+    <t>What is obscenity</t>
+  </si>
+  <si>
+    <t>The doctor's reward</t>
+  </si>
+  <si>
+    <t>Hindu Stuart</t>
+  </si>
+  <si>
+    <t>Alexander's horse</t>
+  </si>
+  <si>
+    <t>Jacob Diamond</t>
+  </si>
+  <si>
+    <t>The story of Rajbhog</t>
+  </si>
+  <si>
+    <t>The story of learning English</t>
+  </si>
+  <si>
+    <t>Kolkata during Second World War</t>
+  </si>
+  <si>
+    <t>Esplanade Mansions</t>
+  </si>
+  <si>
+    <t>Annexation of Awadh: Episode 1</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>22.5664° N, 88.3487° E</t>
+  </si>
+  <si>
+    <t>22.546301° N, 88.359656° E</t>
   </si>
 </sst>
 </file>
@@ -100,7 +175,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -108,7 +183,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -184,39 +259,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -268,7 +343,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -379,6 +454,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -387,13 +469,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -458,31 +533,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,15 +545,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF86339F-C5F2-4E3C-B8A6-1B71E263B3FA}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,59 +575,224 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
